--- a/data/evaluation/evaluation_South_Winter_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Sweet Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2113.060306000158</v>
+        <v>2065.62142408297</v>
       </c>
       <c r="C4" t="n">
-        <v>15343474.92374475</v>
+        <v>14208139.95281494</v>
       </c>
       <c r="D4" t="n">
-        <v>3917.074791696573</v>
+        <v>3769.368641140707</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.673288393976156</v>
+        <v>-5.179500792247404</v>
       </c>
     </row>
     <row r="5">
